--- a/facebook_groups_report.xlsx
+++ b/facebook_groups_report.xlsx
@@ -1303,13 +1303,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5555555555556" style="2" customWidth="1"/>
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1354,13 +1354,16 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1379,8 +1382,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1394,13 +1400,16 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="F4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1414,13 +1423,16 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1434,13 +1446,16 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1454,13 +1469,16 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1474,13 +1492,16 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1494,13 +1515,16 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1514,13 +1538,16 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:6">
+      <c r="G10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1534,13 +1561,16 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1554,13 +1584,16 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1574,13 +1607,16 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" ht="43.2" spans="1:6">
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1594,13 +1630,16 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1614,13 +1653,16 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1634,11 +1676,14 @@
         <v>51</v>
       </c>
       <c r="E16">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
@@ -1654,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="E17">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1674,13 +1719,16 @@
         <v>57</v>
       </c>
       <c r="E18">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" ht="28.8" spans="1:6">
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1694,13 +1742,16 @@
         <v>60</v>
       </c>
       <c r="E19">
-        <v>908</v>
+        <v>941</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1714,13 +1765,16 @@
         <v>63</v>
       </c>
       <c r="E20">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1734,13 +1788,16 @@
         <v>66</v>
       </c>
       <c r="E21">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1754,13 +1811,16 @@
         <v>69</v>
       </c>
       <c r="E22">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1774,13 +1834,16 @@
         <v>72</v>
       </c>
       <c r="E23">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1794,13 +1857,16 @@
         <v>75</v>
       </c>
       <c r="E24">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1814,13 +1880,16 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1839,8 +1908,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1854,13 +1926,16 @@
         <v>84</v>
       </c>
       <c r="E27">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1874,13 +1949,16 @@
         <v>87</v>
       </c>
       <c r="E28">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1894,13 +1972,16 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F29">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1914,13 +1995,16 @@
         <v>92</v>
       </c>
       <c r="E30">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1934,13 +2018,16 @@
         <v>94</v>
       </c>
       <c r="E31">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,13 +2041,16 @@
         <v>96</v>
       </c>
       <c r="E32">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1974,9 +2064,12 @@
         <v>98</v>
       </c>
       <c r="E33">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
     </row>

--- a/facebook_groups_report.xlsx
+++ b/facebook_groups_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9144"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -350,9 +350,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,9 +389,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,14 +427,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,62 +457,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,28 +485,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -495,43 +495,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,49 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,85 +663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +686,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -721,63 +778,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -791,148 +791,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,21 +1303,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5555555555556" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="28.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="49.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="40.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
@@ -1340,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1359,11 +1358,8 @@
       <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1382,11 +1378,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1405,11 +1398,8 @@
       <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1428,11 +1418,8 @@
       <c r="F5">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1451,11 +1438,8 @@
       <c r="F6">
         <v>9</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1474,11 +1458,8 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1497,11 +1478,8 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1520,11 +1498,8 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1543,11 +1518,8 @@
       <c r="F10">
         <v>11</v>
       </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:7">
+    </row>
+    <row r="11" ht="28.8" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1566,11 +1538,8 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1589,11 +1558,8 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1612,11 +1578,8 @@
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="43.2" spans="1:7">
+    </row>
+    <row r="14" ht="43.2" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1635,11 +1598,8 @@
       <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1658,11 +1618,8 @@
       <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1681,9 +1638,6 @@
       <c r="F16">
         <v>8</v>
       </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
@@ -1705,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1724,11 +1678,8 @@
       <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="28.8" spans="1:7">
+    </row>
+    <row r="19" ht="28.8" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1747,11 +1698,8 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1770,11 +1718,8 @@
       <c r="F20">
         <v>9</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1793,11 +1738,8 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1816,11 +1758,8 @@
       <c r="F22">
         <v>9</v>
       </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1839,11 +1778,8 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1862,11 +1798,8 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1885,11 +1818,8 @@
       <c r="F25">
         <v>6</v>
       </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1908,11 +1838,8 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1931,11 +1858,8 @@
       <c r="F27">
         <v>5</v>
       </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1954,11 +1878,8 @@
       <c r="F28">
         <v>9</v>
       </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1977,11 +1898,8 @@
       <c r="F29">
         <v>11</v>
       </c>
-      <c r="G29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2000,11 +1918,8 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -2023,11 +1938,8 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2046,11 +1958,8 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,9 +1976,6 @@
         <v>292</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
         <v>0</v>
       </c>
     </row>

--- a/facebook_groups_report.xlsx
+++ b/facebook_groups_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="22368" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -350,10 +350,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,6 +393,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,16 +412,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,88 +479,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -495,13 +495,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,169 +657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,35 +689,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,23 +733,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,11 +765,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,148 +791,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1315,8 +1315,8 @@
     <col min="2" max="2" width="19.5555555555556" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="40.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" customWidth="1"/>
+    <col min="6" max="6" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
@@ -1353,10 +1353,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>13500</v>
+        <v>15400</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1373,10 +1373,10 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1393,10 +1393,10 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>12900</v>
+        <v>14800</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1413,10 +1413,10 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1433,10 +1433,10 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>12800</v>
+        <v>14700</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1453,10 +1453,10 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>12800</v>
+        <v>14700</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1473,10 +1473,10 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1493,10 +1493,10 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>12600</v>
+        <v>14500</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1513,10 +1513,10 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>12500</v>
+        <v>14300</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:6">
@@ -1533,10 +1533,10 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>12400</v>
+        <v>14300</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1553,10 +1553,10 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1573,10 +1573,10 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>11800</v>
+        <v>13800</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:6">
@@ -1593,7 +1593,7 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>10700</v>
+        <v>12600</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1613,10 +1613,11 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>10600</v>
+        <v>12600</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <f ca="1">SUM(F15:G15)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1633,10 +1634,10 @@
         <v>51</v>
       </c>
       <c r="E16">
-        <v>10600</v>
+        <v>12600</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1653,10 +1654,10 @@
         <v>54</v>
       </c>
       <c r="E17">
-        <v>10200</v>
+        <v>12200</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1673,10 +1674,10 @@
         <v>57</v>
       </c>
       <c r="E18">
-        <v>10100</v>
+        <v>12100</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:6">
@@ -1693,10 +1694,10 @@
         <v>60</v>
       </c>
       <c r="E19">
-        <v>941</v>
+        <v>1200</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1713,10 +1714,10 @@
         <v>63</v>
       </c>
       <c r="E20">
-        <v>10100</v>
+        <v>12100</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1733,10 +1734,10 @@
         <v>66</v>
       </c>
       <c r="E21">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1753,10 +1754,10 @@
         <v>69</v>
       </c>
       <c r="E22">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1773,10 +1774,10 @@
         <v>72</v>
       </c>
       <c r="E23">
-        <v>923</v>
+        <v>1200</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1793,7 +1794,7 @@
         <v>75</v>
       </c>
       <c r="E24">
-        <v>13300</v>
+        <v>15300</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -1813,10 +1814,10 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>13100</v>
+        <v>15200</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1833,10 +1834,10 @@
         <v>81</v>
       </c>
       <c r="E26">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1853,10 +1854,10 @@
         <v>84</v>
       </c>
       <c r="E27">
-        <v>13000</v>
+        <v>15100</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1873,10 +1874,10 @@
         <v>87</v>
       </c>
       <c r="E28">
-        <v>13000</v>
+        <v>15100</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1893,10 +1894,10 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>13000</v>
+        <v>15100</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1913,9 +1914,10 @@
         <v>92</v>
       </c>
       <c r="E30">
-        <v>311</v>
+        <v>2400</v>
       </c>
       <c r="F30">
+        <f ca="1">SUM(F30:G30)</f>
         <v>0</v>
       </c>
     </row>
@@ -1933,9 +1935,10 @@
         <v>94</v>
       </c>
       <c r="E31">
-        <v>304</v>
+        <v>2400</v>
       </c>
       <c r="F31">
+        <f ca="1">SUM(F31:G31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1953,9 +1956,10 @@
         <v>96</v>
       </c>
       <c r="E32">
-        <v>296</v>
+        <v>2400</v>
       </c>
       <c r="F32">
+        <f ca="1">SUM(F32:G32)</f>
         <v>0</v>
       </c>
     </row>
@@ -1973,9 +1977,10 @@
         <v>98</v>
       </c>
       <c r="E33">
-        <v>292</v>
+        <v>2400</v>
       </c>
       <c r="F33">
+        <f ca="1">SUM(F33:G33)</f>
         <v>0</v>
       </c>
     </row>

--- a/facebook_groups_report.xlsx
+++ b/facebook_groups_report.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9144"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -322,9 +320,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -350,6 +348,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +371,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +404,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,8 +432,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,71 +478,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -495,19 +493,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,163 +667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,6 +699,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -711,21 +739,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,168 +784,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,17 +1304,17 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.77777777777778" customWidth="1"/>
-    <col min="6" max="6" width="9.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="60.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="36.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
@@ -1356,7 +1354,7 @@
         <v>15400</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1396,7 +1394,7 @@
         <v>14800</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1416,7 +1414,7 @@
         <v>14700</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1436,7 +1434,7 @@
         <v>14700</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1476,7 +1474,7 @@
         <v>14500</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1496,7 +1494,7 @@
         <v>14500</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1516,7 +1514,7 @@
         <v>14300</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:6">
@@ -1536,7 +1534,7 @@
         <v>14300</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1576,10 +1574,10 @@
         <v>13800</v>
       </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="43.2" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>15100</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1877,7 +1875,7 @@
         <v>15100</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1897,7 +1895,7 @@
         <v>15100</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2023,38 +2021,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/facebook_groups_report.xlsx
+++ b/facebook_groups_report.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="22368" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t>Server Username</t>
   </si>
@@ -288,6 +290,12 @@
   </si>
   <si>
     <t>https://www.facebook.com/groups/5106606936106939/</t>
+  </si>
+  <si>
+    <t>Crypto currency Ethereum Blockchain Dogecoin Bitcoin NFT</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/449196020632208/</t>
   </si>
   <si>
     <t>Crypto Club Credit Currency Byte Technology Ethereum pro Metaverse NFT</t>
@@ -319,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -349,13 +357,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -364,29 +365,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -401,9 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +410,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -425,10 +433,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,6 +471,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -455,30 +485,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,187 +501,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,28 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +721,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,26 +758,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,153 +781,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,20 +1309,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="36.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" customWidth="1"/>
+    <col min="6" max="6" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
@@ -1351,10 +1359,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>15400</v>
+        <v>15994</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1371,10 +1379,10 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>1400</v>
+        <v>1498</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1391,10 +1399,10 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>14800</v>
+        <v>15850</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1411,10 +1419,10 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>14700</v>
+        <v>15771</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1431,10 +1439,10 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>14700</v>
+        <v>15673</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1451,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>14700</v>
+        <v>15533</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1471,7 +1479,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>14500</v>
+        <v>15319</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1491,10 +1499,10 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>14500</v>
+        <v>14924</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1511,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>14300</v>
+        <v>15184</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:6">
@@ -1531,10 +1539,10 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>14300</v>
+        <v>15112</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1551,10 +1559,10 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1571,13 +1579,13 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>13800</v>
+        <v>14547</v>
       </c>
       <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1591,10 +1599,10 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>12600</v>
+        <v>13407</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1611,11 +1619,10 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>12600</v>
+        <v>13330</v>
       </c>
       <c r="F15">
-        <f ca="1">SUM(F15:G15)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1632,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="E16">
-        <v>12600</v>
+        <v>12930</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1652,7 +1659,7 @@
         <v>54</v>
       </c>
       <c r="E17">
-        <v>12200</v>
+        <v>12534</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1672,10 +1679,10 @@
         <v>57</v>
       </c>
       <c r="E18">
-        <v>12100</v>
+        <v>12866</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:6">
@@ -1692,7 +1699,7 @@
         <v>60</v>
       </c>
       <c r="E19">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1712,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="E20">
-        <v>12100</v>
+        <v>12415</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1732,7 +1739,7 @@
         <v>66</v>
       </c>
       <c r="E21">
-        <v>12000</v>
+        <v>12700</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1752,10 +1759,10 @@
         <v>69</v>
       </c>
       <c r="E22">
-        <v>12000</v>
+        <v>12656</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1772,7 +1779,7 @@
         <v>72</v>
       </c>
       <c r="E23">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1792,10 +1799,10 @@
         <v>75</v>
       </c>
       <c r="E24">
-        <v>15300</v>
+        <v>16046</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1812,10 +1819,10 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>15200</v>
+        <v>15902</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1832,10 +1839,10 @@
         <v>81</v>
       </c>
       <c r="E26">
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1852,10 +1859,10 @@
         <v>84</v>
       </c>
       <c r="E27">
-        <v>15100</v>
+        <v>15403</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1872,7 +1879,7 @@
         <v>87</v>
       </c>
       <c r="E28">
-        <v>15100</v>
+        <v>15736</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1892,10 +1899,10 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>15100</v>
+        <v>15772</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1903,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>91</v>
@@ -1912,10 +1919,10 @@
         <v>92</v>
       </c>
       <c r="E30">
-        <v>2400</v>
+        <v>341</v>
       </c>
       <c r="F30">
-        <f ca="1">SUM(F30:G30)</f>
+        <f>SUM(F31:F31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1924,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>93</v>
@@ -1933,10 +1940,10 @@
         <v>94</v>
       </c>
       <c r="E31">
-        <v>2400</v>
+        <v>2618</v>
       </c>
       <c r="F31">
-        <f ca="1">SUM(F31:G31)</f>
+        <f>SUM(F32:F32)</f>
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>95</v>
@@ -1954,10 +1961,10 @@
         <v>96</v>
       </c>
       <c r="E32">
-        <v>2400</v>
+        <v>3007</v>
       </c>
       <c r="F32">
-        <f ca="1">SUM(F32:G32)</f>
+        <f>SUM(F33:G33)</f>
         <v>0</v>
       </c>
     </row>
@@ -1966,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>97</v>
@@ -1975,10 +1982,30 @@
         <v>98</v>
       </c>
       <c r="E33">
-        <v>2400</v>
+        <v>2665</v>
       </c>
       <c r="F33">
-        <f ca="1">SUM(F33:G33)</f>
+        <f>SUM(F34:G34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>2585</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
     </row>
@@ -2010,15 +2037,50 @@
     <hyperlink ref="D26" r:id="rId24" display="https://www.facebook.com/groups/553820536427516/" tooltip="https://www.facebook.com/groups/553820536427516/"/>
     <hyperlink ref="D28" r:id="rId25" display="https://www.facebook.com/groups/511640393799618/" tooltip="https://www.facebook.com/groups/511640393799618/"/>
     <hyperlink ref="D29" r:id="rId26" display="https://www.facebook.com/groups/5106606936106939/" tooltip="https://www.facebook.com/groups/5106606936106939/"/>
-    <hyperlink ref="D30" r:id="rId27" display="https://www.facebook.com/groups/837593584260802/" tooltip="https://www.facebook.com/groups/837593584260802/"/>
-    <hyperlink ref="D31" r:id="rId28" display="https://www.facebook.com/groups/624827702618032/" tooltip="https://www.facebook.com/groups/624827702618032/"/>
-    <hyperlink ref="D32" r:id="rId29" display="https://www.facebook.com/groups/697827292063612/" tooltip="https://www.facebook.com/groups/697827292063612/"/>
-    <hyperlink ref="D33" r:id="rId30" display="https://www.facebook.com/groups/1316600345817111/" tooltip="https://www.facebook.com/groups/1316600345817111/"/>
+    <hyperlink ref="D31" r:id="rId27" display="https://www.facebook.com/groups/837593584260802/" tooltip="https://www.facebook.com/groups/837593584260802/"/>
+    <hyperlink ref="D32" r:id="rId28" display="https://www.facebook.com/groups/624827702618032/" tooltip="https://www.facebook.com/groups/624827702618032/"/>
+    <hyperlink ref="D33" r:id="rId29" display="https://www.facebook.com/groups/697827292063612/" tooltip="https://www.facebook.com/groups/697827292063612/"/>
+    <hyperlink ref="D34" r:id="rId30" display="https://www.facebook.com/groups/1316600345817111/" tooltip="https://www.facebook.com/groups/1316600345817111/"/>
     <hyperlink ref="D24" r:id="rId31" display="https://www.facebook.com/groups/833087687822674/"/>
     <hyperlink ref="D25" r:id="rId32" display="https://www.facebook.com/groups/651468046494962/"/>
+    <hyperlink ref="D30" r:id="rId33" display="https://www.facebook.com/groups/449196020632208/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/facebook_groups_report.xlsx
+++ b/facebook_groups_report.xlsx
@@ -232,7 +232,7 @@
     <t>Gen_Malaysia3</t>
   </si>
   <si>
-    <t>Margin Trading Market Order Mining Pool Paper Wallet Proof of Authority NFT</t>
+    <t>BITCOIN, BNB, METAVERSE, BLOCKCHAIN, TRON, OPENSEA, NFT</t>
   </si>
   <si>
     <t>https://www.facebook.com/groups/1487781145028710</t>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1359,10 +1359,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>15994</v>
+        <v>17035</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1379,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>1498</v>
+        <v>1527</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1399,10 +1399,10 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>15850</v>
+        <v>16211</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1419,7 +1419,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>15771</v>
+        <v>16182</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1439,10 +1439,10 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>15673</v>
+        <v>16128</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1459,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>15533</v>
+        <v>16094</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1479,7 +1479,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>15319</v>
+        <v>15888</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1499,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>14924</v>
+        <v>15843</v>
       </c>
       <c r="F9">
         <v>13</v>
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>15184</v>
+        <v>15762</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:6">
@@ -1539,10 +1539,10 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>15112</v>
+        <v>15686</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1559,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>1340</v>
+        <v>1457</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1579,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>14547</v>
+        <v>15129</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:6">
@@ -1599,10 +1599,10 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>13407</v>
+        <v>14003</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1619,7 +1619,7 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>13330</v>
+        <v>13930</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1639,10 +1639,10 @@
         <v>51</v>
       </c>
       <c r="E16">
-        <v>12930</v>
+        <v>13871</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1679,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="E18">
-        <v>12866</v>
+        <v>13414</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -1699,10 +1699,10 @@
         <v>60</v>
       </c>
       <c r="E19">
-        <v>1210</v>
+        <v>1307</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1719,10 +1719,10 @@
         <v>63</v>
       </c>
       <c r="E20">
-        <v>12415</v>
+        <v>13303</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1739,7 +1739,7 @@
         <v>66</v>
       </c>
       <c r="E21">
-        <v>12700</v>
+        <v>13211</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1759,10 +1759,10 @@
         <v>69</v>
       </c>
       <c r="E22">
-        <v>12656</v>
+        <v>13165</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1779,7 +1779,7 @@
         <v>72</v>
       </c>
       <c r="E23">
-        <v>1196</v>
+        <v>1298</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>75</v>
       </c>
       <c r="E24">
-        <v>16046</v>
+        <v>16570</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -1819,7 +1819,7 @@
         <v>78</v>
       </c>
       <c r="E25">
-        <v>15902</v>
+        <v>16411</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1839,7 +1839,7 @@
         <v>81</v>
       </c>
       <c r="E26">
-        <v>1411</v>
+        <v>1511</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1859,10 +1859,10 @@
         <v>84</v>
       </c>
       <c r="E27">
-        <v>15403</v>
+        <v>16310</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1879,10 +1879,10 @@
         <v>87</v>
       </c>
       <c r="E28">
-        <v>15736</v>
+        <v>16124</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1899,7 +1899,7 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>15772</v>
+        <v>16200</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -1919,10 +1919,9 @@
         <v>92</v>
       </c>
       <c r="E30">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="F30">
-        <f>SUM(F31:F31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1940,10 +1939,9 @@
         <v>94</v>
       </c>
       <c r="E31">
-        <v>2618</v>
+        <v>3534</v>
       </c>
       <c r="F31">
-        <f>SUM(F32:F32)</f>
         <v>0</v>
       </c>
     </row>
@@ -1961,10 +1959,9 @@
         <v>96</v>
       </c>
       <c r="E32">
-        <v>3007</v>
+        <v>3514</v>
       </c>
       <c r="F32">
-        <f>SUM(F33:G33)</f>
         <v>0</v>
       </c>
     </row>
@@ -1982,10 +1979,9 @@
         <v>98</v>
       </c>
       <c r="E33">
-        <v>2665</v>
+        <v>3504</v>
       </c>
       <c r="F33">
-        <f>SUM(F34:G34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2003,7 +1999,7 @@
         <v>100</v>
       </c>
       <c r="E34">
-        <v>2585</v>
+        <v>3492</v>
       </c>
       <c r="F34">
         <v>0</v>
